--- a/cta策略/result/螺纹/Portfolio_1d/wfo_组合绩效.xlsx
+++ b/cta策略/result/螺纹/Portfolio_1d/wfo_组合绩效.xlsx
@@ -423,16 +423,16 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>0.1290245131779786</v>
+        <v>0.1252880313951514</v>
       </c>
       <c r="D2">
-        <v>0.424773364506793</v>
+        <v>0.37126925982755</v>
       </c>
       <c r="E2">
-        <v>0.303601721183949</v>
+        <v>0.294207964738944</v>
       </c>
       <c r="F2">
-        <v>0.65</v>
+        <v>0.7647058823529411</v>
       </c>
     </row>
   </sheetData>
